--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\queriesAndBenchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B1BDAF-9E40-44BB-8151-EE8752B5A26C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376B6A0F-CC8C-4CD3-9DFA-27805F134A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{DA4D4C25-BC96-469B-A8F7-7E57A5C645F1}"/>
+    <workbookView xWindow="7470" yWindow="1065" windowWidth="12900" windowHeight="8670" xr2:uid="{DA4D4C25-BC96-469B-A8F7-7E57A5C645F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>QueryNum</t>
   </si>
@@ -169,6 +169,45 @@
   </si>
   <si>
     <t>[[(3,32)],[(32)]]</t>
+  </si>
+  <si>
+    <t>list iterable node</t>
+  </si>
+  <si>
+    <t>long list with iteration option and the list must consisting of nodes</t>
+  </si>
+  <si>
+    <t>execute xor operation between two blocks</t>
+  </si>
+  <si>
+    <t>encryption and dectyption by AES attack</t>
+  </si>
+  <si>
+    <t>solve maze game by bread search</t>
+  </si>
+  <si>
+    <t>generate a maze that contains stat position and search function</t>
+  </si>
+  <si>
+    <t>get value of binary expression</t>
+  </si>
+  <si>
+    <t>IterableList</t>
+  </si>
+  <si>
+    <t>AES attack</t>
+  </si>
+  <si>
+    <t>maze</t>
+  </si>
+  <si>
+    <t>Binary-Operations</t>
+  </si>
+  <si>
+    <t>show solution of maze game by showing the path</t>
+  </si>
+  <si>
+    <t>write descryption to a file</t>
   </si>
 </sst>
 </file>
@@ -179,7 +218,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -210,9 +249,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,22 +575,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB8EE31-7CFE-4A3B-B421-98E170C17A5A}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
-    <col min="2" max="2" width="42.875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="54.125" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,7 +621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -587,7 +635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -601,7 +649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -615,7 +663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -629,7 +677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -643,7 +691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -657,7 +705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -674,7 +722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -688,7 +736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -702,7 +750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -716,7 +764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -730,7 +778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -744,7 +792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -758,7 +806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -772,7 +820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -786,7 +834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -800,7 +848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -814,7 +862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -828,7 +876,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -840,6 +888,124 @@
       </c>
       <c r="D21" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
